--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907464C-076C-411F-B4A8-4314E79C2E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AA529-9E88-444A-BE31-6BFAA8679D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,15 +35,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시작일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -130,6 +122,42 @@
     <t>통합테스트 및 문제점 고치기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>종료예정일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에서 구현할 때 추가될 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc연결에서 jdbcTemplate연결로 바꿀예정. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css templete을 다루는 법을 터득한 후에 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작예정일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +165,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -266,6 +294,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -275,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,8 +368,47 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,7 +526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>시작일</c:v>
+                  <c:v>시작예정일</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1040,7 +1138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>종료일</c:v>
+                  <c:v>종료예정일</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1998,15 +2096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>872490</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32383</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>80009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2029,6 +2127,119 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9595081B-68C8-4217-A36F-5F6C02B65F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16325850" y="916305"/>
+          <a:ext cx="5303520" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>공지사항</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>회원가입 구현을 하는데 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>Spring </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>프레임워크에 대한 기반지식이 너무 부족하여 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>4/26~ 4/28</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>까지 빠르게 도서로 학습한 후에 계획한 일정에 늦지 않게 진행하겠습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2331,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DD106-B914-4CA1-BC24-8C7F03E546DE}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2344,9 +2555,13 @@
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" customWidth="1"/>
     <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="41.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,21 +2569,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>44307</v>
@@ -2380,11 +2607,21 @@
         <f>C2+D2</f>
         <v>44309</v>
       </c>
+      <c r="F2" s="3">
+        <v>44307</v>
+      </c>
+      <c r="G2" s="18">
+        <v>44308</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>44307</v>
@@ -2396,11 +2633,21 @@
         <f t="shared" ref="E3:E29" si="0">C3+D3</f>
         <v>44309</v>
       </c>
+      <c r="F3" s="5">
+        <v>44308</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>44307</v>
@@ -2412,11 +2659,21 @@
         <f t="shared" si="0"/>
         <v>44309</v>
       </c>
+      <c r="F4" s="5">
+        <v>44308</v>
+      </c>
+      <c r="G4" s="19">
+        <v>44308</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>44308</v>
@@ -2428,13 +2685,23 @@
         <f t="shared" si="0"/>
         <v>44309</v>
       </c>
+      <c r="F5" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G5" s="19">
+        <v>44309</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>44308</v>
@@ -2446,11 +2713,21 @@
         <f t="shared" si="0"/>
         <v>44309</v>
       </c>
+      <c r="F6" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G6" s="19">
+        <v>44309</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>44310</v>
@@ -2462,11 +2739,21 @@
         <f t="shared" si="0"/>
         <v>44312</v>
       </c>
+      <c r="F7" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G7" s="19">
+        <v>44309</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>44310</v>
@@ -2478,11 +2765,21 @@
         <f t="shared" si="0"/>
         <v>44312</v>
       </c>
+      <c r="F8" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G8" s="19">
+        <v>44309</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>44312</v>
@@ -2494,11 +2791,21 @@
         <f t="shared" si="0"/>
         <v>44313</v>
       </c>
+      <c r="F9" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G9" s="19">
+        <v>44309</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>44312</v>
@@ -2510,13 +2817,23 @@
         <f t="shared" si="0"/>
         <v>44313</v>
       </c>
+      <c r="F10" s="5">
+        <v>44312</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>44313</v>
@@ -2528,11 +2845,21 @@
         <f t="shared" si="0"/>
         <v>44314</v>
       </c>
+      <c r="F11" s="5">
+        <v>44309</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <v>44314</v>
@@ -2544,11 +2871,17 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
         <v>44314</v>
@@ -2560,11 +2893,17 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
         <v>44319</v>
@@ -2576,11 +2915,17 @@
         <f t="shared" si="0"/>
         <v>44320</v>
       </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
         <v>44319</v>
@@ -2592,11 +2937,17 @@
         <f t="shared" si="0"/>
         <v>44321</v>
       </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
         <v>44319</v>
@@ -2608,13 +2959,19 @@
         <f t="shared" si="0"/>
         <v>44321</v>
       </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
         <v>44322</v>
@@ -2626,11 +2983,17 @@
         <f t="shared" si="0"/>
         <v>44323</v>
       </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <v>44322</v>
@@ -2642,11 +3005,17 @@
         <f t="shared" si="0"/>
         <v>44325</v>
       </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
         <v>44322</v>
@@ -2658,11 +3027,17 @@
         <f t="shared" si="0"/>
         <v>44325</v>
       </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5">
         <v>44326</v>
@@ -2674,11 +3049,17 @@
         <f t="shared" si="0"/>
         <v>44327</v>
       </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
         <v>44327</v>
@@ -2690,11 +3071,17 @@
         <f t="shared" si="0"/>
         <v>44328</v>
       </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
         <v>44328</v>
@@ -2706,13 +3093,19 @@
         <f t="shared" si="0"/>
         <v>44330</v>
       </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
         <v>44333</v>
@@ -2724,11 +3117,17 @@
         <f t="shared" si="0"/>
         <v>44334</v>
       </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5">
         <v>44333</v>
@@ -2740,11 +3139,17 @@
         <f t="shared" si="0"/>
         <v>44336</v>
       </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="5">
         <v>44333</v>
@@ -2756,11 +3161,17 @@
         <f t="shared" si="0"/>
         <v>44336</v>
       </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="5">
         <v>44336</v>
@@ -2772,11 +3183,17 @@
         <f t="shared" si="0"/>
         <v>44337</v>
       </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5">
         <v>44336</v>
@@ -2788,11 +3205,17 @@
         <f t="shared" si="0"/>
         <v>44338</v>
       </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7">
         <v>44340</v>
@@ -2804,11 +3227,17 @@
         <f t="shared" si="0"/>
         <v>44342</v>
       </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="9">
         <v>44342</v>
@@ -2820,11 +3249,18 @@
         <f t="shared" si="0"/>
         <v>44344</v>
       </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AA529-9E88-444A-BE31-6BFAA8679D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14DCDEA-1882-4292-96DC-87E11BC69E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
@@ -2129,119 +2129,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>417195</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9595081B-68C8-4217-A36F-5F6C02B65F82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16325850" y="916305"/>
-          <a:ext cx="5303520" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>공지사항</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>회원가입 구현을 하는데 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>Spring </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>프레임워크에 대한 기반지식이 너무 부족하여 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>4/26~ 4/28</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>까지 빠르게 도서로 학습한 후에 계획한 일정에 늦지 않게 진행하겠습니다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>. </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14DCDEA-1882-4292-96DC-87E11BC69E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B194E-1B71-4416-BABD-10AAC7C08D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t xml:space="preserve">jdbc연결에서 jdbcTemplate연결로 바꿀예정. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>css templete을 다루는 법을 터득한 후에 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2432,7 +2428,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2456,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2465,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>25</v>
@@ -2739,9 +2735,7 @@
       <c r="H11" s="23">
         <v>0.2</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
@@ -2758,10 +2752,12 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>44314</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -2780,10 +2776,12 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>44314</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="H13" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -2802,10 +2800,12 @@
         <f t="shared" si="0"/>
         <v>44320</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>44314</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="H14" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="15"/>
     </row>

--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B194E-1B71-4416-BABD-10AAC7C08D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36494509-EF03-4230-9413-7DCC4F001281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DD106-B914-4CA1-BC24-8C7F03E546DE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="23">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="15"/>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -2870,10 +2870,12 @@
         <f t="shared" si="0"/>
         <v>44323</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5">
+        <v>44315</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -2892,10 +2894,12 @@
         <f t="shared" si="0"/>
         <v>44325</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>44315</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I18" s="15"/>
     </row>
@@ -2936,10 +2940,12 @@
         <f t="shared" si="0"/>
         <v>44327</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5">
+        <v>44315</v>
+      </c>
       <c r="G20" s="20"/>
       <c r="H20" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I20" s="15"/>
     </row>

--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36494509-EF03-4230-9413-7DCC4F001281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C5BD1-D41F-48D1-BDB1-C4B542FA7351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2427,24 +2427,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DD106-B914-4CA1-BC24-8C7F03E546DE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.796875" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="41.69921875" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="51.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -2527,7 +2527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>21</v>
@@ -2711,7 +2711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -2757,11 +2757,11 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -2781,11 +2781,11 @@
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -2945,11 +2945,11 @@
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3010,14 +3010,16 @@
         <f t="shared" si="0"/>
         <v>44334</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>44316</v>
+      </c>
       <c r="G23" s="20"/>
       <c r="H23" s="23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -3032,14 +3034,16 @@
         <f t="shared" si="0"/>
         <v>44336</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>44316</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -3061,7 +3065,7 @@
       </c>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>16</v>
@@ -3076,14 +3080,16 @@
         <f t="shared" si="0"/>
         <v>44337</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>44316</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>18</v>
@@ -3105,7 +3111,7 @@
       </c>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>17</v>
@@ -3127,7 +3133,7 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>23</v>
@@ -3149,7 +3155,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C5BD1-D41F-48D1-BDB1-C4B542FA7351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF8A65-6532-4026-8E8B-005A1CFE39E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
@@ -2428,7 +2428,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="23">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I23" s="15"/>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="23">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="23">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I26" s="15"/>
     </row>

--- a/토이프로젝트(회원)_일정표_전의민수습.xlsx
+++ b/토이프로젝트(회원)_일정표_전의민수습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZNIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EF8A65-6532-4026-8E8B-005A1CFE39E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E52661-573D-43FC-AD00-729C77D45BE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28430CC2-C5CD-4F76-8BC0-089DC33311B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,95 +63,114 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>기능에 필요한 테이블과 속성 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추출된 테이블에 따른 dto/vo 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트 및 문제점 고치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료예정일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제종료일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작예정일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>제공받은 템플릿 분석 및 필요 기능 추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능에 필요한 테이블과 속성 추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설계된 내용에 따른 html 구조 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>service, dao 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>service, dao 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 view 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추출된 테이블에 따른 dto/vo 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능에 필요한 service/dao 인터페이스 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관리 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합테스트 및 문제점 고치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료예정일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제종료일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤에서 구현할 때 추가될 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">jdbc연결에서 jdbcTemplate연결로 바꿀예정. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제시작일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작예정일</t>
+  </si>
+  <si>
+    <t>일반회원가입 form양식 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반회원가입 controller, service, dao구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 form양식 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원 조회 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저 조회 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원, Manager,super Manager 로그인 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/로그아웃 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재발급 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저 회원가입 로직 구상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저 등록,수정,삭제 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반회원 수정,삭제 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view 수정 및 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저 회원가입 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,59 +674,56 @@
                   <c:pt idx="7">
                     <c:v>추출된 테이블에 따른 dto/vo 작성</c:v>
                   </c:pt>
-                  <c:pt idx="8">
-                    <c:v>기능에 필요한 service/dao 인터페이스 작성</c:v>
-                  </c:pt>
                   <c:pt idx="9">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원가입 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v> 일반회원가입 controller, service, dao구현</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>매니저 회원가입 로직 구상</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 회원가입 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>로그인 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>일반회원, Manager,super Manager 로그인 구현</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>로그아웃 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>controller 작성</c:v>
+                    <c:v>비밀번호 재발급 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>매니저 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>일반회원 수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 등록,수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>웹 테스트</c:v>
@@ -727,7 +743,7 @@
                     <c:v>회원가입 구현</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>로그인 구현</c:v>
+                    <c:v>로그인/로그아웃 구현</c:v>
                   </c:pt>
                   <c:pt idx="21">
                     <c:v>회원관리 구현</c:v>
@@ -764,9 +780,6 @@
                   <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44312</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -945,59 +958,56 @@
                   <c:pt idx="7">
                     <c:v>추출된 테이블에 따른 dto/vo 작성</c:v>
                   </c:pt>
-                  <c:pt idx="8">
-                    <c:v>기능에 필요한 service/dao 인터페이스 작성</c:v>
-                  </c:pt>
                   <c:pt idx="9">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원가입 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v> 일반회원가입 controller, service, dao구현</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>매니저 회원가입 로직 구상</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 회원가입 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>로그인 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>일반회원, Manager,super Manager 로그인 구현</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>로그아웃 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>controller 작성</c:v>
+                    <c:v>비밀번호 재발급 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>매니저 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>일반회원 수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 등록,수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>웹 테스트</c:v>
@@ -1017,7 +1027,7 @@
                     <c:v>회원가입 구현</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>로그인 구현</c:v>
+                    <c:v>로그인/로그아웃 구현</c:v>
                   </c:pt>
                   <c:pt idx="21">
                     <c:v>회원관리 구현</c:v>
@@ -1054,9 +1064,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -1179,59 +1186,56 @@
                   <c:pt idx="7">
                     <c:v>추출된 테이블에 따른 dto/vo 작성</c:v>
                   </c:pt>
-                  <c:pt idx="8">
-                    <c:v>기능에 필요한 service/dao 인터페이스 작성</c:v>
-                  </c:pt>
                   <c:pt idx="9">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원가입 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v> 일반회원가입 controller, service, dao구현</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>매니저 회원가입 로직 구상</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 회원가입 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>로그인 form양식 구현</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>일반회원, Manager,super Manager 로그인 구현</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>로그아웃 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>controller 작성</c:v>
+                    <c:v>비밀번호 재발급 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>웹 테스트</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>설계된 내용에 따른 html 구조 변경</c:v>
+                    <c:v>일반회원 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>service, dao 구현</c:v>
+                    <c:v>매니저 조회 구현</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>service, dao 테스트</c:v>
+                    <c:v>일반회원 수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>controller 작성</c:v>
+                    <c:v>매니저 등록,수정,삭제 기능 구현</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>필요한 view 생성</c:v>
+                    <c:v>view 수정 및 생성</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>웹 테스트</c:v>
@@ -1251,7 +1255,7 @@
                     <c:v>회원가입 구현</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>로그인 구현</c:v>
+                    <c:v>로그인/로그아웃 구현</c:v>
                   </c:pt>
                   <c:pt idx="21">
                     <c:v>회원관리 구현</c:v>
@@ -1288,9 +1292,6 @@
                   <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44313</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -2427,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88DD106-B914-4CA1-BC24-8C7F03E546DE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2452,25 +2453,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2523,9 +2524,7 @@
       <c r="H3" s="23">
         <v>0.6</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -2584,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>44308</v>
@@ -2610,7 +2609,7 @@
     <row r="7" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>44310</v>
@@ -2636,7 +2635,7 @@
     <row r="8" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>44310</v>
@@ -2662,7 +2661,7 @@
     <row r="9" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>44312</v>
@@ -2687,36 +2686,21 @@
     </row>
     <row r="10" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44312</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>44313</v>
-      </c>
-      <c r="F10" s="5">
-        <v>44312</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>44313</v>
@@ -2731,16 +2715,18 @@
       <c r="F11" s="5">
         <v>44309</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19">
+        <v>44310</v>
+      </c>
       <c r="H11" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>44314</v>
@@ -2753,18 +2739,20 @@
         <v>44316</v>
       </c>
       <c r="F12" s="5">
-        <v>44314</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>44309</v>
+      </c>
+      <c r="G12" s="19">
+        <v>44311</v>
+      </c>
       <c r="H12" s="23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>44314</v>
@@ -2777,18 +2765,20 @@
         <v>44316</v>
       </c>
       <c r="F13" s="5">
-        <v>44314</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>44312</v>
+      </c>
+      <c r="G13" s="19">
+        <v>44313</v>
+      </c>
       <c r="H13" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5">
         <v>44319</v>
@@ -2803,16 +2793,18 @@
       <c r="F14" s="5">
         <v>44314</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19">
+        <v>44317</v>
+      </c>
       <c r="H14" s="23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>44319</v>
@@ -2824,17 +2816,19 @@
         <f t="shared" si="0"/>
         <v>44321</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>44320</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7">
         <v>44319</v>
@@ -2846,19 +2840,21 @@
         <f t="shared" si="0"/>
         <v>44321</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>44317</v>
+      </c>
       <c r="G16" s="20"/>
       <c r="H16" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>44322</v>
@@ -2873,16 +2869,18 @@
       <c r="F17" s="5">
         <v>44315</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="19">
+        <v>44316</v>
+      </c>
       <c r="H17" s="23">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>44322</v>
@@ -2897,16 +2895,18 @@
       <c r="F18" s="5">
         <v>44315</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="19">
+        <v>44317</v>
+      </c>
       <c r="H18" s="23">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5">
         <v>44322</v>
@@ -2918,17 +2918,21 @@
         <f t="shared" si="0"/>
         <v>44325</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="5">
+        <v>44317</v>
+      </c>
+      <c r="G19" s="19">
+        <v>44319</v>
+      </c>
       <c r="H19" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
         <v>44326</v>
@@ -2940,19 +2944,17 @@
         <f t="shared" si="0"/>
         <v>44327</v>
       </c>
-      <c r="F20" s="5">
-        <v>44315</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="20"/>
       <c r="H20" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5">
         <v>44327</v>
@@ -2964,17 +2966,19 @@
         <f t="shared" si="0"/>
         <v>44328</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>44320</v>
+      </c>
       <c r="G21" s="20"/>
       <c r="H21" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7">
         <v>44328</v>
@@ -2986,19 +2990,21 @@
         <f t="shared" si="0"/>
         <v>44330</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>44320</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="23">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>44333</v>
@@ -3013,16 +3019,18 @@
       <c r="F23" s="5">
         <v>44316</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19">
+        <v>44319</v>
+      </c>
       <c r="H23" s="23">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
         <v>44333</v>
@@ -3034,19 +3042,17 @@
         <f t="shared" si="0"/>
         <v>44336</v>
       </c>
-      <c r="F24" s="5">
-        <v>44316</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="20"/>
       <c r="H24" s="23">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5">
         <v>44333</v>
@@ -3068,7 +3074,7 @@
     <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5">
         <v>44336</v>
@@ -3080,19 +3086,17 @@
         <f t="shared" si="0"/>
         <v>44337</v>
       </c>
-      <c r="F26" s="5">
-        <v>44316</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="20"/>
       <c r="H26" s="23">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>44336</v>
@@ -3104,17 +3108,19 @@
         <f t="shared" si="0"/>
         <v>44338</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>44319</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" s="7">
         <v>44340</v>
@@ -3126,17 +3132,19 @@
         <f t="shared" si="0"/>
         <v>44342</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>44320</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9">
         <v>44342</v>
